--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H2">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I2">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J2">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>913.198831463277</v>
+        <v>2059.728881066322</v>
       </c>
       <c r="R2">
-        <v>8218.789483169492</v>
+        <v>18537.5599295969</v>
       </c>
       <c r="S2">
-        <v>0.365990770815258</v>
+        <v>0.2873596276622675</v>
       </c>
       <c r="T2">
-        <v>0.365990770815258</v>
+        <v>0.2873596276622675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H3">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I3">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J3">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>372.467033695263</v>
+        <v>811.4671801312209</v>
       </c>
       <c r="R3">
-        <v>3352.203303257367</v>
+        <v>7303.204621180987</v>
       </c>
       <c r="S3">
-        <v>0.1492769067027479</v>
+        <v>0.1132104855576618</v>
       </c>
       <c r="T3">
-        <v>0.1492769067027479</v>
+        <v>0.1132104855576618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H4">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I4">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J4">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>385.8587522685509</v>
+        <v>943.4101963547115</v>
       </c>
       <c r="R4">
-        <v>3472.728770416958</v>
+        <v>8490.691767192404</v>
       </c>
       <c r="S4">
-        <v>0.1546440241741151</v>
+        <v>0.1316182946451326</v>
       </c>
       <c r="T4">
-        <v>0.1546440241741151</v>
+        <v>0.1316182946451327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H5">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I5">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J5">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>82.60850979485699</v>
+        <v>248.3047468041338</v>
       </c>
       <c r="R5">
-        <v>743.4765881537129</v>
+        <v>2234.742721237204</v>
       </c>
       <c r="S5">
-        <v>0.03310774295152536</v>
+        <v>0.03464182118545144</v>
       </c>
       <c r="T5">
-        <v>0.03310774295152536</v>
+        <v>0.03464182118545144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H6">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I6">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J6">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>218.443402337598</v>
+        <v>449.5647170916097</v>
       </c>
       <c r="R6">
-        <v>1965.990621038382</v>
+        <v>4046.082453824488</v>
       </c>
       <c r="S6">
-        <v>0.08754749398106303</v>
+        <v>0.06272026910971777</v>
       </c>
       <c r="T6">
-        <v>0.08754749398106301</v>
+        <v>0.06272026910971779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H7">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I7">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J7">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>283.9506806824739</v>
+        <v>2328.091710137006</v>
       </c>
       <c r="R7">
-        <v>2555.556126142266</v>
+        <v>20952.82539123306</v>
       </c>
       <c r="S7">
-        <v>0.1138014251835746</v>
+        <v>0.3247998186257604</v>
       </c>
       <c r="T7">
-        <v>0.1138014251835746</v>
+        <v>0.3247998186257604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.531017</v>
       </c>
       <c r="I8">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J8">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>40.27567795732367</v>
+        <v>41.69696565741389</v>
       </c>
       <c r="R8">
-        <v>362.481101615913</v>
+        <v>375.272690916725</v>
       </c>
       <c r="S8">
-        <v>0.01614163960009487</v>
+        <v>0.005817282379299219</v>
       </c>
       <c r="T8">
-        <v>0.01614163960009486</v>
+        <v>0.005817282379299219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.531017</v>
       </c>
       <c r="I9">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J9">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
         <v>16.42726839103856</v>
@@ -1013,10 +1013,10 @@
         <v>147.845415519347</v>
       </c>
       <c r="S9">
-        <v>0.006583701614238322</v>
+        <v>0.002291822856760233</v>
       </c>
       <c r="T9">
-        <v>0.00658370161423832</v>
+        <v>0.002291822856760233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.531017</v>
       </c>
       <c r="I10">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J10">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>17.01789611193545</v>
+        <v>19.09831090871122</v>
       </c>
       <c r="R10">
-        <v>153.161065007419</v>
+        <v>171.884798178401</v>
       </c>
       <c r="S10">
-        <v>0.006820412708677128</v>
+        <v>0.002664468883333954</v>
       </c>
       <c r="T10">
-        <v>0.006820412708677126</v>
+        <v>0.002664468883333955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.531017</v>
       </c>
       <c r="I11">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J11">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>3.643361798548112</v>
+        <v>5.026658894400112</v>
       </c>
       <c r="R11">
-        <v>32.790256186933</v>
+        <v>45.23993004960101</v>
       </c>
       <c r="S11">
-        <v>0.001460182325105297</v>
+        <v>0.0007012859029933323</v>
       </c>
       <c r="T11">
-        <v>0.001460182325105297</v>
+        <v>0.0007012859029933323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.531017</v>
       </c>
       <c r="I12">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J12">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>9.634217457718002</v>
+        <v>9.100947576969112</v>
       </c>
       <c r="R12">
-        <v>86.70795711946201</v>
+        <v>81.908528192722</v>
       </c>
       <c r="S12">
-        <v>0.003861190522881021</v>
+        <v>0.001269703469777899</v>
       </c>
       <c r="T12">
-        <v>0.003861190522881019</v>
+        <v>0.0012697034697779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.531017</v>
       </c>
       <c r="I13">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J13">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>12.52334735536733</v>
+        <v>47.12967855975167</v>
       </c>
       <c r="R13">
-        <v>112.710126198306</v>
+        <v>424.167107037765</v>
       </c>
       <c r="S13">
-        <v>0.005019092659627905</v>
+        <v>0.006575218227634548</v>
       </c>
       <c r="T13">
-        <v>0.005019092659627904</v>
+        <v>0.006575218227634548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H14">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I14">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J14">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>2.699073369151</v>
+        <v>3.147037056944444</v>
       </c>
       <c r="R14">
-        <v>24.291660322359</v>
+        <v>28.3233335125</v>
       </c>
       <c r="S14">
-        <v>0.001081731501210571</v>
+        <v>0.0004390536080917314</v>
       </c>
       <c r="T14">
-        <v>0.001081731501210571</v>
+        <v>0.0004390536080917315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H15">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I15">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J15">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>1.100872906202333</v>
+        <v>1.239831761277778</v>
       </c>
       <c r="R15">
-        <v>9.907856155821001</v>
+        <v>11.1584858515</v>
       </c>
       <c r="S15">
-        <v>0.0004412065692911782</v>
+        <v>0.0001729730531817326</v>
       </c>
       <c r="T15">
-        <v>0.0004412065692911781</v>
+        <v>0.0001729730531817326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H16">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I16">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J16">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>1.140453805479667</v>
+        <v>1.441426041611111</v>
       </c>
       <c r="R16">
-        <v>10.264084249317</v>
+        <v>12.9728343745</v>
       </c>
       <c r="S16">
-        <v>0.0004570697562959842</v>
+        <v>0.0002010981418125426</v>
       </c>
       <c r="T16">
-        <v>0.0004570697562959841</v>
+        <v>0.0002010981418125426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H17">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I17">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J17">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>0.2441597833576667</v>
+        <v>0.3793820860555555</v>
       </c>
       <c r="R17">
-        <v>2.197438050219</v>
+        <v>3.4144387745</v>
       </c>
       <c r="S17">
-        <v>9.78540754043358E-05</v>
+        <v>5.29288567989684E-05</v>
       </c>
       <c r="T17">
-        <v>9.785407540433579E-05</v>
+        <v>5.29288567989684E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H18">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I18">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J18">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>0.645636798474</v>
+        <v>0.6868849765555555</v>
       </c>
       <c r="R18">
-        <v>5.810731186266</v>
+        <v>6.181964788999999</v>
       </c>
       <c r="S18">
-        <v>0.0002587575688873372</v>
+        <v>9.58296079276339E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002587575688873371</v>
+        <v>9.582960792763394E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H19">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I19">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J19">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>0.839251753262</v>
+        <v>3.557065665833333</v>
       </c>
       <c r="R19">
-        <v>7.553265779358</v>
+        <v>32.0135909925</v>
       </c>
       <c r="S19">
-        <v>0.000336354346393804</v>
+        <v>0.0004962580632335121</v>
       </c>
       <c r="T19">
-        <v>0.000336354346393804</v>
+        <v>0.0004962580632335122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H20">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I20">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J20">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N20">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q20">
-        <v>47.07948585464833</v>
+        <v>42.27388308862222</v>
       </c>
       <c r="R20">
-        <v>423.715372691835</v>
+        <v>380.4649477976</v>
       </c>
       <c r="S20">
-        <v>0.01886846185503654</v>
+        <v>0.00589777004918035</v>
       </c>
       <c r="T20">
-        <v>0.01886846185503653</v>
+        <v>0.00589777004918035</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H21">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I21">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J21">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q21">
-        <v>19.20234218442944</v>
+        <v>16.65455537301689</v>
       </c>
       <c r="R21">
-        <v>172.821079659865</v>
+        <v>149.890998357152</v>
       </c>
       <c r="S21">
-        <v>0.007695892477519334</v>
+        <v>0.002323532419661522</v>
       </c>
       <c r="T21">
-        <v>0.007695892477519332</v>
+        <v>0.002323532419661522</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H22">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I22">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J22">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N22">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q22">
-        <v>19.89274519790055</v>
+        <v>19.36255432057956</v>
       </c>
       <c r="R22">
-        <v>179.034706781105</v>
+        <v>174.262988885216</v>
       </c>
       <c r="S22">
-        <v>0.007972591398244605</v>
+        <v>0.002701334360700753</v>
       </c>
       <c r="T22">
-        <v>0.007972591398244603</v>
+        <v>0.002701334360700753</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H23">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I23">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J23">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N23">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q23">
-        <v>4.258838310303888</v>
+        <v>5.096207531601778</v>
       </c>
       <c r="R23">
-        <v>38.329544792735</v>
+        <v>45.865867784416</v>
       </c>
       <c r="S23">
-        <v>0.001706852289186654</v>
+        <v>0.0007109888647153345</v>
       </c>
       <c r="T23">
-        <v>0.001706852289186653</v>
+        <v>0.0007109888647153345</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H24">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I24">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J24">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N24">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q24">
-        <v>11.26173481181</v>
+        <v>9.226867897905779</v>
       </c>
       <c r="R24">
-        <v>101.35561330629</v>
+        <v>83.04181108115201</v>
       </c>
       <c r="S24">
-        <v>0.004513465044503964</v>
+        <v>0.001287271032612063</v>
       </c>
       <c r="T24">
-        <v>0.004513465044503963</v>
+        <v>0.001287271032612063</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H25">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I25">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J25">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N25">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q25">
-        <v>14.63892812169667</v>
+        <v>47.78176277402667</v>
       </c>
       <c r="R25">
-        <v>131.75035309527</v>
+        <v>430.03586496624</v>
       </c>
       <c r="S25">
-        <v>0.005866972670764279</v>
+        <v>0.00666619266545546</v>
       </c>
       <c r="T25">
-        <v>0.005866972670764277</v>
+        <v>0.00666619266545546</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H26">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I26">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J26">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N26">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q26">
-        <v>1.895594001402333</v>
+        <v>9.042895847627777</v>
       </c>
       <c r="R26">
-        <v>17.060346012621</v>
+        <v>81.38606262865001</v>
       </c>
       <c r="S26">
-        <v>0.0007597139700828871</v>
+        <v>0.001261604479914709</v>
       </c>
       <c r="T26">
-        <v>0.0007597139700828869</v>
+        <v>0.001261604479914709</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H27">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I27">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J27">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q27">
-        <v>0.7731572254221112</v>
+        <v>3.562611206333111</v>
       </c>
       <c r="R27">
-        <v>6.958415028799</v>
+        <v>32.063500856998</v>
       </c>
       <c r="S27">
-        <v>0.0003098650580183138</v>
+        <v>0.0004970317400352752</v>
       </c>
       <c r="T27">
-        <v>0.0003098650580183138</v>
+        <v>0.0004970317400352753</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H28">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I28">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J28">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N28">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q28">
-        <v>0.8009554009358888</v>
+        <v>4.141884995470444</v>
       </c>
       <c r="R28">
-        <v>7.208598608422999</v>
+        <v>37.27696495923401</v>
       </c>
       <c r="S28">
-        <v>0.0003210059786294835</v>
+        <v>0.0005778481532492505</v>
       </c>
       <c r="T28">
-        <v>0.0003210059786294835</v>
+        <v>0.0005778481532492507</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H29">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I29">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J29">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N29">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q29">
-        <v>0.1714765615512222</v>
+        <v>1.090140544448222</v>
       </c>
       <c r="R29">
-        <v>1.543289053961</v>
+        <v>9.811264900034001</v>
       </c>
       <c r="S29">
-        <v>6.872417788612296E-05</v>
+        <v>0.0001520891335902455</v>
       </c>
       <c r="T29">
-        <v>6.872417788612295E-05</v>
+        <v>0.0001520891335902455</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H30">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I30">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J30">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N30">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q30">
-        <v>0.453439041806</v>
+        <v>1.973738850194222</v>
       </c>
       <c r="R30">
-        <v>4.080951376254</v>
+        <v>17.763649651748</v>
       </c>
       <c r="S30">
-        <v>0.0001817287744032594</v>
+        <v>0.0002753628724187904</v>
       </c>
       <c r="T30">
-        <v>0.0001817287744032594</v>
+        <v>0.0002753628724187906</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H31">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I31">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J31">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N31">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q31">
-        <v>0.5894173190446667</v>
+        <v>10.22109805422333</v>
       </c>
       <c r="R31">
-        <v>5.304755871402</v>
+        <v>91.98988248801001</v>
       </c>
       <c r="S31">
-        <v>0.0002362259909852889</v>
+        <v>0.001425979388918696</v>
       </c>
       <c r="T31">
-        <v>0.0002362259909852889</v>
+        <v>0.001425979388918696</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H32">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I32">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J32">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N32">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O32">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P32">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q32">
-        <v>4.615575034746334</v>
+        <v>2.362757634291667</v>
       </c>
       <c r="R32">
-        <v>41.540175312717</v>
+        <v>21.264818708625</v>
       </c>
       <c r="S32">
-        <v>0.001849824820751979</v>
+        <v>0.0003296361770170135</v>
       </c>
       <c r="T32">
-        <v>0.001849824820751978</v>
+        <v>0.0003296361770170135</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H33">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I33">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J33">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.870491</v>
       </c>
       <c r="O33">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P33">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q33">
-        <v>1.882557754958112</v>
+        <v>0.9308507990816668</v>
       </c>
       <c r="R33">
-        <v>16.943019794623</v>
+        <v>8.377657191735</v>
       </c>
       <c r="S33">
-        <v>0.0007544893183200138</v>
+        <v>0.0001298660913540975</v>
       </c>
       <c r="T33">
-        <v>0.0007544893183200135</v>
+        <v>0.0001298660913540975</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H34">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I34">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J34">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N34">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O34">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P34">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q34">
-        <v>1.950243432807889</v>
+        <v>1.082205364111667</v>
       </c>
       <c r="R34">
-        <v>17.552190895271</v>
+        <v>9.739848277005001</v>
       </c>
       <c r="S34">
-        <v>0.0007816163059550056</v>
+        <v>0.000150982070185976</v>
       </c>
       <c r="T34">
-        <v>0.0007816163059550053</v>
+        <v>0.000150982070185976</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H35">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I35">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J35">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N35">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O35">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P35">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q35">
-        <v>0.4175276646552223</v>
+        <v>0.2848355147783334</v>
       </c>
       <c r="R35">
-        <v>3.757748981897</v>
+        <v>2.563519633005</v>
       </c>
       <c r="S35">
-        <v>0.0001673362542295418</v>
+        <v>3.973835014116921E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001673362542295417</v>
+        <v>3.973835014116921E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H36">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I36">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J36">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N36">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O36">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P36">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q36">
-        <v>1.104077096462</v>
+        <v>0.5157049926233334</v>
       </c>
       <c r="R36">
-        <v>9.936693868158001</v>
+        <v>4.64134493361</v>
       </c>
       <c r="S36">
-        <v>0.0004424907409551905</v>
+        <v>7.194771895760087E-05</v>
       </c>
       <c r="T36">
-        <v>0.0004424907409551903</v>
+        <v>7.19477189576009E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H37">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I37">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J37">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N37">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O37">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P37">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q37">
-        <v>1.435170115972667</v>
+        <v>2.670602190425</v>
       </c>
       <c r="R37">
-        <v>12.916531043754</v>
+        <v>24.035419713825</v>
       </c>
       <c r="S37">
-        <v>0.000575185818135798</v>
+        <v>0.0003725845950546991</v>
       </c>
       <c r="T37">
-        <v>0.0005751858181357978</v>
+        <v>0.0003725845950546991</v>
       </c>
     </row>
   </sheetData>
